--- a/EffortEstimation/PMSheets/PM16_5_19.xlsx
+++ b/EffortEstimation/PMSheets/PM16_5_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A214C0-EFE8-4956-BBB3-62631317CD0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42961009-F534-4B88-9AE2-B4A653A87D36}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
